--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.312821333333335</v>
+        <v>6.176422</v>
       </c>
       <c r="H2">
-        <v>18.938464</v>
+        <v>18.529266</v>
       </c>
       <c r="I2">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="J2">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.816292333333331</v>
+        <v>7.446634</v>
       </c>
       <c r="N2">
-        <v>29.448877</v>
+        <v>22.339902</v>
       </c>
       <c r="O2">
-        <v>0.3637676450248369</v>
+        <v>0.3025192762093004</v>
       </c>
       <c r="P2">
-        <v>0.3637676450248368</v>
+        <v>0.3025192762093004</v>
       </c>
       <c r="Q2">
-        <v>61.96849965610311</v>
+        <v>45.993554063548</v>
       </c>
       <c r="R2">
-        <v>557.716496904928</v>
+        <v>413.941986571932</v>
       </c>
       <c r="S2">
-        <v>0.1129364255549491</v>
+        <v>0.09251232295860916</v>
       </c>
       <c r="T2">
-        <v>0.1129364255549491</v>
+        <v>0.09251232295860916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.312821333333335</v>
+        <v>6.176422</v>
       </c>
       <c r="H3">
-        <v>18.938464</v>
+        <v>18.529266</v>
       </c>
       <c r="I3">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="J3">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>33.857525</v>
       </c>
       <c r="O3">
-        <v>0.4182255281116336</v>
+        <v>0.4584869690672005</v>
       </c>
       <c r="P3">
-        <v>0.4182255281116335</v>
+        <v>0.4584869690672005</v>
       </c>
       <c r="Q3">
-        <v>71.24550203795556</v>
+        <v>69.70612075851665</v>
       </c>
       <c r="R3">
-        <v>641.2095183416001</v>
+        <v>627.3550868266499</v>
       </c>
       <c r="S3">
-        <v>0.1298435879791724</v>
+        <v>0.1402082375911579</v>
       </c>
       <c r="T3">
-        <v>0.1298435879791724</v>
+        <v>0.1402082375911579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.312821333333335</v>
+        <v>6.176422</v>
       </c>
       <c r="H4">
-        <v>18.938464</v>
+        <v>18.529266</v>
       </c>
       <c r="I4">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="J4">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.882927666666667</v>
+        <v>5.882927666666666</v>
       </c>
       <c r="N4">
         <v>17.648783</v>
       </c>
       <c r="O4">
-        <v>0.2180068268635295</v>
+        <v>0.238993754723499</v>
       </c>
       <c r="P4">
-        <v>0.2180068268635295</v>
+        <v>0.238993754723499</v>
       </c>
       <c r="Q4">
-        <v>37.13787127659023</v>
+        <v>36.33544386480866</v>
       </c>
       <c r="R4">
-        <v>334.2408414893121</v>
+        <v>327.0189947832779</v>
       </c>
       <c r="S4">
-        <v>0.06768307217334471</v>
+        <v>0.07308581356903047</v>
       </c>
       <c r="T4">
-        <v>0.0676830721733447</v>
+        <v>0.07308581356903046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.064909</v>
       </c>
       <c r="I5">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="J5">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.816292333333331</v>
+        <v>7.446634</v>
       </c>
       <c r="N5">
-        <v>29.448877</v>
+        <v>22.339902</v>
       </c>
       <c r="O5">
-        <v>0.3637676450248369</v>
+        <v>0.3025192762093004</v>
       </c>
       <c r="P5">
-        <v>0.3637676450248368</v>
+        <v>0.3025192762093004</v>
       </c>
       <c r="Q5">
-        <v>91.83111701746587</v>
+        <v>69.66303518876867</v>
       </c>
       <c r="R5">
-        <v>826.4800531571929</v>
+        <v>626.967316698918</v>
       </c>
       <c r="S5">
-        <v>0.1673604842496688</v>
+        <v>0.1401215744440162</v>
       </c>
       <c r="T5">
-        <v>0.1673604842496688</v>
+        <v>0.1401215744440161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.064909</v>
       </c>
       <c r="I6">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="J6">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>33.857525</v>
       </c>
       <c r="O6">
-        <v>0.4182255281116336</v>
+        <v>0.4584869690672005</v>
       </c>
       <c r="P6">
-        <v>0.4182255281116335</v>
+        <v>0.4584869690672005</v>
       </c>
       <c r="Q6">
         <v>105.5787064544694</v>
@@ -818,10 +818,10 @@
         <v>950.2083580902249</v>
       </c>
       <c r="S6">
-        <v>0.1924152075305034</v>
+        <v>0.2123630492997524</v>
       </c>
       <c r="T6">
-        <v>0.1924152075305033</v>
+        <v>0.2123630492997524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.064909</v>
       </c>
       <c r="I7">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="J7">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.882927666666667</v>
+        <v>5.882927666666666</v>
       </c>
       <c r="N7">
         <v>17.648783</v>
       </c>
       <c r="O7">
-        <v>0.2180068268635295</v>
+        <v>0.238993754723499</v>
       </c>
       <c r="P7">
-        <v>0.2180068268635295</v>
+        <v>0.238993754723499</v>
       </c>
       <c r="Q7">
         <v>55.03460987286078</v>
@@ -880,10 +880,10 @@
         <v>495.311488855747</v>
       </c>
       <c r="S7">
-        <v>0.100299541788888</v>
+        <v>0.1106976772315647</v>
       </c>
       <c r="T7">
-        <v>0.100299541788888</v>
+        <v>0.1106976772315647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.997322</v>
       </c>
       <c r="I8">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="J8">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.816292333333331</v>
+        <v>7.446634</v>
       </c>
       <c r="N8">
-        <v>29.448877</v>
+        <v>22.339902</v>
       </c>
       <c r="O8">
-        <v>0.3637676450248369</v>
+        <v>0.3025192762093004</v>
       </c>
       <c r="P8">
-        <v>0.3637676450248368</v>
+        <v>0.3025192762093004</v>
       </c>
       <c r="Q8">
-        <v>45.80060154526599</v>
+        <v>34.744311304716</v>
       </c>
       <c r="R8">
-        <v>412.2054139073939</v>
+        <v>312.6988017424441</v>
       </c>
       <c r="S8">
-        <v>0.08347073522021904</v>
+        <v>0.06988537880667509</v>
       </c>
       <c r="T8">
-        <v>0.08347073522021903</v>
+        <v>0.06988537880667509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.997322</v>
       </c>
       <c r="I9">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="J9">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>33.857525</v>
       </c>
       <c r="O9">
-        <v>0.4182255281116336</v>
+        <v>0.4584869690672005</v>
       </c>
       <c r="P9">
-        <v>0.4182255281116335</v>
+        <v>0.4584869690672005</v>
       </c>
       <c r="Q9">
         <v>52.65718661644999</v>
@@ -1004,10 +1004,10 @@
         <v>473.9146795480499</v>
       </c>
       <c r="S9">
-        <v>0.09596673260195786</v>
+        <v>0.1059156821762903</v>
       </c>
       <c r="T9">
-        <v>0.09596673260195783</v>
+        <v>0.1059156821762903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.997322</v>
       </c>
       <c r="I10">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="J10">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.882927666666667</v>
+        <v>5.882927666666666</v>
       </c>
       <c r="N10">
         <v>17.648783</v>
       </c>
       <c r="O10">
-        <v>0.2180068268635295</v>
+        <v>0.238993754723499</v>
       </c>
       <c r="P10">
-        <v>0.2180068268635295</v>
+        <v>0.238993754723499</v>
       </c>
       <c r="Q10">
         <v>27.448410951014</v>
@@ -1066,10 +1066,10 @@
         <v>247.035698559126</v>
       </c>
       <c r="S10">
-        <v>0.05002421290129683</v>
+        <v>0.05521026392290385</v>
       </c>
       <c r="T10">
-        <v>0.05002421290129682</v>
+        <v>0.05521026392290384</v>
       </c>
     </row>
   </sheetData>
